--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl12-Ccr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl12-Ccr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,9 +79,6 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
   </si>
   <si>
     <t>Ccr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,51 +537,51 @@
         <v>2.571444</v>
       </c>
       <c r="I2">
-        <v>0.04787301688248036</v>
+        <v>0.02394963654761903</v>
       </c>
       <c r="J2">
-        <v>0.04787301688248035</v>
+        <v>0.02394963654761903</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.006600000000000001</v>
+        <v>4.769389</v>
       </c>
       <c r="N2">
-        <v>0.0198</v>
+        <v>14.308167</v>
       </c>
       <c r="O2">
-        <v>0.001099924410750217</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.001099924410750217</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.005657176800000001</v>
+        <v>4.088072242572</v>
       </c>
       <c r="R2">
-        <v>0.0509145912</v>
+        <v>36.79265018314801</v>
       </c>
       <c r="S2">
-        <v>5.265669988529739E-05</v>
+        <v>0.02394963654761903</v>
       </c>
       <c r="T2">
-        <v>5.265669988529738E-05</v>
+        <v>0.02394963654761903</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,480 +593,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.857148</v>
+        <v>34.93245566666667</v>
       </c>
       <c r="H3">
-        <v>2.571444</v>
+        <v>104.797367</v>
       </c>
       <c r="I3">
-        <v>0.04787301688248036</v>
+        <v>0.9760503634523809</v>
       </c>
       <c r="J3">
-        <v>0.04787301688248035</v>
+        <v>0.9760503634523809</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.06755966666666667</v>
+        <v>4.769389</v>
       </c>
       <c r="N3">
-        <v>0.202679</v>
+        <v>14.308167</v>
       </c>
       <c r="O3">
-        <v>0.0112591706892143</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.0112591706892143</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.057908633164</v>
+        <v>166.6064697995877</v>
       </c>
       <c r="R3">
-        <v>0.521177698476</v>
+        <v>1499.458228196289</v>
       </c>
       <c r="S3">
-        <v>0.0005390104684874843</v>
+        <v>0.9760503634523809</v>
       </c>
       <c r="T3">
-        <v>0.0005390104684874842</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.857148</v>
-      </c>
-      <c r="H4">
-        <v>2.571444</v>
-      </c>
-      <c r="I4">
-        <v>0.04787301688248036</v>
-      </c>
-      <c r="J4">
-        <v>0.04787301688248035</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>5.926252666666667</v>
-      </c>
-      <c r="N4">
-        <v>17.778758</v>
-      </c>
-      <c r="O4">
-        <v>0.9876409049000355</v>
-      </c>
-      <c r="P4">
-        <v>0.9876409049000355</v>
-      </c>
-      <c r="Q4">
-        <v>5.079675620728</v>
-      </c>
-      <c r="R4">
-        <v>45.717080586552</v>
-      </c>
-      <c r="S4">
-        <v>0.04728134971410758</v>
-      </c>
-      <c r="T4">
-        <v>0.04728134971410757</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>1.104681666666667</v>
-      </c>
-      <c r="H5">
-        <v>3.314045</v>
-      </c>
-      <c r="I5">
-        <v>0.06169814790222909</v>
-      </c>
-      <c r="J5">
-        <v>0.06169814790222908</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.006600000000000001</v>
-      </c>
-      <c r="N5">
-        <v>0.0198</v>
-      </c>
-      <c r="O5">
-        <v>0.001099924410750217</v>
-      </c>
-      <c r="P5">
-        <v>0.001099924410750217</v>
-      </c>
-      <c r="Q5">
-        <v>0.007290899</v>
-      </c>
-      <c r="R5">
-        <v>0.065618091</v>
-      </c>
-      <c r="S5">
-        <v>6.786329897573907E-05</v>
-      </c>
-      <c r="T5">
-        <v>6.786329897573905E-05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>1.104681666666667</v>
-      </c>
-      <c r="H6">
-        <v>3.314045</v>
-      </c>
-      <c r="I6">
-        <v>0.06169814790222909</v>
-      </c>
-      <c r="J6">
-        <v>0.06169814790222908</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.06755966666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.202679</v>
-      </c>
-      <c r="O6">
-        <v>0.0112591706892143</v>
-      </c>
-      <c r="P6">
-        <v>0.0112591706892143</v>
-      </c>
-      <c r="Q6">
-        <v>0.07463192517277778</v>
-      </c>
-      <c r="R6">
-        <v>0.671687326555</v>
-      </c>
-      <c r="S6">
-        <v>0.0006946699784395867</v>
-      </c>
-      <c r="T6">
-        <v>0.0006946699784395866</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>1.104681666666667</v>
-      </c>
-      <c r="H7">
-        <v>3.314045</v>
-      </c>
-      <c r="I7">
-        <v>0.06169814790222909</v>
-      </c>
-      <c r="J7">
-        <v>0.06169814790222908</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>5.926252666666667</v>
-      </c>
-      <c r="N7">
-        <v>17.778758</v>
-      </c>
-      <c r="O7">
-        <v>0.9876409049000355</v>
-      </c>
-      <c r="P7">
-        <v>0.9876409049000355</v>
-      </c>
-      <c r="Q7">
-        <v>6.54662267290111</v>
-      </c>
-      <c r="R7">
-        <v>58.91960405611</v>
-      </c>
-      <c r="S7">
-        <v>0.06093561462481377</v>
-      </c>
-      <c r="T7">
-        <v>0.06093561462481376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>15.94278666666666</v>
-      </c>
-      <c r="H8">
-        <v>47.82836</v>
-      </c>
-      <c r="I8">
-        <v>0.8904288352152907</v>
-      </c>
-      <c r="J8">
-        <v>0.8904288352152906</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.006600000000000001</v>
-      </c>
-      <c r="N8">
-        <v>0.0198</v>
-      </c>
-      <c r="O8">
-        <v>0.001099924410750217</v>
-      </c>
-      <c r="P8">
-        <v>0.001099924410750217</v>
-      </c>
-      <c r="Q8">
-        <v>0.105222392</v>
-      </c>
-      <c r="R8">
-        <v>0.947001528</v>
-      </c>
-      <c r="S8">
-        <v>0.0009794044118891807</v>
-      </c>
-      <c r="T8">
-        <v>0.0009794044118891804</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>15.94278666666666</v>
-      </c>
-      <c r="H9">
-        <v>47.82836</v>
-      </c>
-      <c r="I9">
-        <v>0.8904288352152907</v>
-      </c>
-      <c r="J9">
-        <v>0.8904288352152906</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.06755966666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.202679</v>
-      </c>
-      <c r="O9">
-        <v>0.0112591706892143</v>
-      </c>
-      <c r="P9">
-        <v>0.0112591706892143</v>
-      </c>
-      <c r="Q9">
-        <v>1.077089352937778</v>
-      </c>
-      <c r="R9">
-        <v>9.693804176439999</v>
-      </c>
-      <c r="S9">
-        <v>0.01002549024228723</v>
-      </c>
-      <c r="T9">
-        <v>0.01002549024228723</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>15.94278666666666</v>
-      </c>
-      <c r="H10">
-        <v>47.82836</v>
-      </c>
-      <c r="I10">
-        <v>0.8904288352152907</v>
-      </c>
-      <c r="J10">
-        <v>0.8904288352152906</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>5.926252666666667</v>
-      </c>
-      <c r="N10">
-        <v>17.778758</v>
-      </c>
-      <c r="O10">
-        <v>0.9876409049000355</v>
-      </c>
-      <c r="P10">
-        <v>0.9876409049000355</v>
-      </c>
-      <c r="Q10">
-        <v>94.4809819974311</v>
-      </c>
-      <c r="R10">
-        <v>850.32883797688</v>
-      </c>
-      <c r="S10">
-        <v>0.8794239405611143</v>
-      </c>
-      <c r="T10">
-        <v>0.8794239405611143</v>
+        <v>0.9760503634523809</v>
       </c>
     </row>
   </sheetData>
